--- a/Data/2022-08-08_Behavior_Assay_stars.xlsx
+++ b/Data/2022-08-08_Behavior_Assay_stars.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,22 +434,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Moving [s]|Accomodation</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Moving [s]|Accomodation</t>
+          <t>Velocity [mm/s]|Light</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Velocity [mm/s]|Light</t>
+          <t>Velocity [mm/s]|Dark</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Velocity [mm/s]|Dark</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Velocity|Ratio Light/Dark</t>
         </is>
@@ -479,11 +458,13 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -498,22 +479,19 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>*</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -527,23 +505,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -552,15 +527,10 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -569,28 +539,25 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -599,11 +566,13 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -616,11 +585,6 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -629,11 +593,13 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -646,11 +612,6 @@
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -659,105 +620,98 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Amiodarone_1F03</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Amodiaquine_1D03</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
+          <t>Amiodarone_1F03</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Amuvatinib_1E04</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
+          <t>Amodiaquine_1D03</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -766,11 +720,6 @@
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -779,15 +728,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
+          <t>Amuvatinib_1E04</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -796,11 +747,6 @@
         </is>
       </c>
       <c r="E12" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -809,15 +755,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -826,11 +774,6 @@
         </is>
       </c>
       <c r="E13" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -839,15 +782,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>0.5</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -857,53 +802,47 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -916,11 +855,6 @@
         </is>
       </c>
       <c r="E16" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -929,11 +863,13 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -946,11 +882,6 @@
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -959,56 +890,54 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>ns</t>
         </is>
       </c>
     </row>
@@ -1018,8 +947,10 @@
           <t>Atazanavir_1B10</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1032,11 +963,6 @@
         </is>
       </c>
       <c r="E20" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1048,8 +974,10 @@
           <t>Baricitinib_2C09</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1062,11 +990,6 @@
         </is>
       </c>
       <c r="E21" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1078,8 +1001,10 @@
           <t>Bemcentinib_1A04</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1092,11 +1017,6 @@
         </is>
       </c>
       <c r="E22" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -1108,8 +1028,10 @@
           <t>Benztropine_1G02</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1122,11 +1044,6 @@
         </is>
       </c>
       <c r="E23" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1138,8 +1055,10 @@
           <t>Berbamine_2A09</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1152,11 +1071,6 @@
         </is>
       </c>
       <c r="E24" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1168,8 +1082,10 @@
           <t>Boceprevir_2G09</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1182,11 +1098,6 @@
         </is>
       </c>
       <c r="E25" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1198,8 +1109,10 @@
           <t>Bortezomib_2G06</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1212,11 +1125,6 @@
         </is>
       </c>
       <c r="E26" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1228,12 +1136,14 @@
           <t>Brequinar_2H03</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1242,11 +1152,6 @@
         </is>
       </c>
       <c r="E27" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1258,8 +1163,10 @@
           <t>Cabozantinib_2G04</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1272,11 +1179,6 @@
         </is>
       </c>
       <c r="E28" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1288,12 +1190,14 @@
           <t>Camostat_1E10</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1302,11 +1206,6 @@
         </is>
       </c>
       <c r="E29" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -1318,8 +1217,10 @@
           <t>Captopril_1F07</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1332,11 +1233,6 @@
         </is>
       </c>
       <c r="E30" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1348,8 +1244,10 @@
           <t>Celecoxib_2G03</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1362,11 +1260,6 @@
         </is>
       </c>
       <c r="E31" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1378,8 +1271,10 @@
           <t>Chlormidazole_2C05</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1392,11 +1287,6 @@
         </is>
       </c>
       <c r="E32" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1408,8 +1298,10 @@
           <t>Chlorothiazide_2H08</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1422,11 +1314,6 @@
         </is>
       </c>
       <c r="E33" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1438,8 +1325,10 @@
           <t>Chlorpromazine_1B02</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1452,11 +1341,6 @@
         </is>
       </c>
       <c r="E34" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1468,8 +1352,10 @@
           <t>Ciclesonide_1A08</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1482,11 +1368,6 @@
         </is>
       </c>
       <c r="E35" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1498,8 +1379,10 @@
           <t>Clemastine_2D07</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1512,11 +1395,6 @@
         </is>
       </c>
       <c r="E36" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1528,12 +1406,14 @@
           <t>Clomipramine_1E08</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>1</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1542,11 +1422,6 @@
         </is>
       </c>
       <c r="E37" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
         <is>
           <t>**</t>
         </is>
@@ -1558,8 +1433,10 @@
           <t>Cloperastine_2D06</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1572,11 +1449,6 @@
         </is>
       </c>
       <c r="E38" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1588,8 +1460,10 @@
           <t>Control</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1602,11 +1476,6 @@
         </is>
       </c>
       <c r="E39" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1618,8 +1487,10 @@
           <t>Cycloheximide_2D11</t>
         </is>
       </c>
-      <c r="B40" s="1" t="n">
-        <v>1</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1632,11 +1503,6 @@
         </is>
       </c>
       <c r="E40" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1648,8 +1514,10 @@
           <t>Cyclosporine_1F04</t>
         </is>
       </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1662,11 +1530,6 @@
         </is>
       </c>
       <c r="E41" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1678,8 +1541,10 @@
           <t>Dabrafenib_2B08</t>
         </is>
       </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1692,11 +1557,6 @@
         </is>
       </c>
       <c r="E42" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1708,8 +1568,10 @@
           <t>Daclatasvir_1C04</t>
         </is>
       </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1722,11 +1584,6 @@
         </is>
       </c>
       <c r="E43" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1738,8 +1595,10 @@
           <t>Danusertib_2F04</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
-        <v>1</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1752,11 +1611,6 @@
         </is>
       </c>
       <c r="E44" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1768,12 +1622,14 @@
           <t>Dapivirine_2B09</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1782,11 +1638,6 @@
         </is>
       </c>
       <c r="E45" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1798,8 +1649,10 @@
           <t>Darifenacin_2F08</t>
         </is>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>1</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1812,11 +1665,6 @@
         </is>
       </c>
       <c r="E46" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1828,8 +1676,10 @@
           <t>Darunavir_2H02</t>
         </is>
       </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1842,11 +1692,6 @@
         </is>
       </c>
       <c r="E47" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1858,25 +1703,22 @@
           <t>Delanzomib_2H04</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>1</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1888,8 +1730,10 @@
           <t>Delavirdine_2H05</t>
         </is>
       </c>
-      <c r="B49" s="1" t="n">
-        <v>1</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1902,11 +1746,6 @@
         </is>
       </c>
       <c r="E49" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1918,8 +1757,10 @@
           <t>Desmethyl ferroquine_2E11</t>
         </is>
       </c>
-      <c r="B50" s="1" t="n">
-        <v>1</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1932,11 +1773,6 @@
         </is>
       </c>
       <c r="E50" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1948,8 +1784,10 @@
           <t>Digitoxin_2C04</t>
         </is>
       </c>
-      <c r="B51" s="1" t="n">
-        <v>1</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1958,15 +1796,10 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1978,8 +1811,10 @@
           <t>Digoxin_1D02</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1992,11 +1827,6 @@
         </is>
       </c>
       <c r="E52" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2008,8 +1838,10 @@
           <t>Doravirine_2D10</t>
         </is>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>1</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2022,11 +1854,6 @@
         </is>
       </c>
       <c r="E53" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2038,8 +1865,10 @@
           <t>Doxorubicin_2A05</t>
         </is>
       </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2052,11 +1881,6 @@
         </is>
       </c>
       <c r="E54" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2068,8 +1892,10 @@
           <t>Doxycycline_1E05</t>
         </is>
       </c>
-      <c r="B55" s="1" t="n">
-        <v>1</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2082,11 +1908,6 @@
         </is>
       </c>
       <c r="E55" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2098,8 +1919,10 @@
           <t>Drotaverine_1B07</t>
         </is>
       </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2112,11 +1935,6 @@
         </is>
       </c>
       <c r="E56" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2128,8 +1946,10 @@
           <t>Dutacatib_2C07</t>
         </is>
       </c>
-      <c r="B57" s="1" t="n">
-        <v>1</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2142,11 +1962,6 @@
         </is>
       </c>
       <c r="E57" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2158,8 +1973,10 @@
           <t>E 52862_2D09</t>
         </is>
       </c>
-      <c r="B58" s="1" t="n">
-        <v>1</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2172,11 +1989,6 @@
         </is>
       </c>
       <c r="E58" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2188,12 +2000,14 @@
           <t>Emetine_1E06</t>
         </is>
       </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2202,11 +2016,6 @@
         </is>
       </c>
       <c r="E59" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2218,8 +2027,10 @@
           <t>Entacapone_2B05</t>
         </is>
       </c>
-      <c r="B60" s="1" t="n">
-        <v>1</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2232,11 +2043,6 @@
         </is>
       </c>
       <c r="E60" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2248,8 +2054,10 @@
           <t>Eszopiclone_2C10</t>
         </is>
       </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2262,11 +2070,6 @@
         </is>
       </c>
       <c r="E61" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2278,8 +2081,10 @@
           <t>Ethaverine_1A10</t>
         </is>
       </c>
-      <c r="B62" s="1" t="n">
-        <v>1</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2288,15 +2093,10 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2308,8 +2108,10 @@
           <t>Favipiravir_1D10</t>
         </is>
       </c>
-      <c r="B63" s="1" t="n">
-        <v>1</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2322,11 +2124,6 @@
         </is>
       </c>
       <c r="E63" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2338,8 +2135,10 @@
           <t>Ferroquine_1G09</t>
         </is>
       </c>
-      <c r="B64" s="1" t="n">
-        <v>1</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2352,11 +2151,6 @@
         </is>
       </c>
       <c r="E64" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2368,8 +2162,10 @@
           <t>Fluconazole_2A11</t>
         </is>
       </c>
-      <c r="B65" s="1" t="n">
-        <v>1</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2378,15 +2174,10 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2398,8 +2189,10 @@
           <t>Fluphenazine_1H06</t>
         </is>
       </c>
-      <c r="B66" s="1" t="n">
-        <v>1</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2412,11 +2205,6 @@
         </is>
       </c>
       <c r="E66" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2428,8 +2216,10 @@
           <t>Fluspirilene_2A02</t>
         </is>
       </c>
-      <c r="B67" s="1" t="n">
-        <v>1</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2442,11 +2232,6 @@
         </is>
       </c>
       <c r="E67" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2458,25 +2243,22 @@
           <t>GSK 983_1C07</t>
         </is>
       </c>
-      <c r="B68" s="1" t="n">
-        <v>1</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -2488,8 +2270,10 @@
           <t>GSK-369796_1C03</t>
         </is>
       </c>
-      <c r="B69" s="1" t="n">
-        <v>1</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2502,11 +2286,6 @@
         </is>
       </c>
       <c r="E69" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2518,8 +2297,10 @@
           <t>Halofantrine_1D05</t>
         </is>
       </c>
-      <c r="B70" s="1" t="n">
-        <v>1</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2528,15 +2309,10 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2548,8 +2324,10 @@
           <t>Haloperidol_1H07</t>
         </is>
       </c>
-      <c r="B71" s="1" t="n">
-        <v>1</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2562,11 +2340,6 @@
         </is>
       </c>
       <c r="E71" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2578,8 +2351,10 @@
           <t>Hanfangchin B_2B04</t>
         </is>
       </c>
-      <c r="B72" s="1" t="n">
-        <v>1</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2592,11 +2367,6 @@
         </is>
       </c>
       <c r="E72" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -2608,8 +2378,10 @@
           <t>Hydroxychloroquine_1F11</t>
         </is>
       </c>
-      <c r="B73" s="1" t="n">
-        <v>1</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2622,11 +2394,6 @@
         </is>
       </c>
       <c r="E73" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2638,8 +2405,10 @@
           <t>Hydroxyprogesterone_1E02</t>
         </is>
       </c>
-      <c r="B74" s="1" t="n">
-        <v>1</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2652,11 +2421,6 @@
         </is>
       </c>
       <c r="E74" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2668,8 +2432,10 @@
           <t>Idelalisib_2F07</t>
         </is>
       </c>
-      <c r="B75" s="1" t="n">
-        <v>1</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2682,11 +2448,6 @@
         </is>
       </c>
       <c r="E75" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2698,8 +2459,10 @@
           <t>Imatinib_1H05</t>
         </is>
       </c>
-      <c r="B76" s="1" t="n">
-        <v>1</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2712,11 +2475,6 @@
         </is>
       </c>
       <c r="E76" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2728,8 +2486,10 @@
           <t>Indinavir_2H06</t>
         </is>
       </c>
-      <c r="B77" s="1" t="n">
-        <v>1</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2742,11 +2502,6 @@
         </is>
       </c>
       <c r="E77" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2758,8 +2513,10 @@
           <t>Indomethacin_1F06</t>
         </is>
       </c>
-      <c r="B78" s="1" t="n">
-        <v>1</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2772,11 +2529,6 @@
         </is>
       </c>
       <c r="E78" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2788,25 +2540,22 @@
           <t>Itraconazole_1C06</t>
         </is>
       </c>
-      <c r="B79" s="1" t="n">
-        <v>1</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2818,34 +2567,37 @@
           <t>Ivermectin_1F05</t>
         </is>
       </c>
-      <c r="B80" s="1" t="n">
-        <v>5</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n">
-        <v>1</v>
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2859,23 +2611,20 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>1</v>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2888,11 +2637,6 @@
         </is>
       </c>
       <c r="E82" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2901,15 +2645,17 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>1</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2918,11 +2664,6 @@
         </is>
       </c>
       <c r="E83" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2931,11 +2672,13 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="n">
-        <v>1</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2944,15 +2687,10 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2961,11 +2699,13 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>1</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2978,11 +2718,6 @@
         </is>
       </c>
       <c r="E85" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2991,11 +2726,13 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>1</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3008,11 +2745,6 @@
         </is>
       </c>
       <c r="E86" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3021,11 +2753,13 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>1</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3038,11 +2772,6 @@
         </is>
       </c>
       <c r="E87" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3051,11 +2780,13 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>1</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3068,11 +2799,6 @@
         </is>
       </c>
       <c r="E88" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3081,15 +2807,17 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>1</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3098,11 +2826,6 @@
         </is>
       </c>
       <c r="E89" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3111,28 +2834,25 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>1</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3141,11 +2861,13 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>1</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3154,15 +2876,10 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3171,11 +2888,13 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>1</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3184,15 +2903,10 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3201,15 +2915,17 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="n">
-        <v>1</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3219,19 +2935,20 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>ns</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="n">
-        <v>0.5</v>
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3245,23 +2962,20 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>1</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3274,11 +2988,6 @@
         </is>
       </c>
       <c r="E95" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3287,11 +2996,13 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>1</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3300,28 +3011,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>*</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="n">
-        <v>1</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3338,33 +3046,29 @@
           <t>ns</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="n">
-        <v>0.5</v>
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3373,15 +3077,17 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>1</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3390,11 +3096,6 @@
         </is>
       </c>
       <c r="E99" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3403,11 +3104,13 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>0.5</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3424,16 +3127,17 @@
           <t>ns</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="n">
-        <v>1</v>
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3450,16 +3154,17 @@
           <t>ns</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="n">
-        <v>10</v>
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3476,16 +3181,17 @@
           <t>ns</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="n">
-        <v>25</v>
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3498,11 +3204,6 @@
         </is>
       </c>
       <c r="E103" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3511,41 +3212,40 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B104" s="1" t="n">
-        <v>1</v>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>**</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B105" s="1" t="n">
-        <v>1</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3558,11 +3258,6 @@
         </is>
       </c>
       <c r="E105" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3571,15 +3266,17 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="n">
-        <v>1</v>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3589,23 +3286,20 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="n">
-        <v>1</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3618,11 +3312,6 @@
         </is>
       </c>
       <c r="E107" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3631,11 +3320,13 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B108" s="1" t="n">
-        <v>1</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3648,11 +3339,6 @@
         </is>
       </c>
       <c r="E108" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3661,11 +3347,13 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="n">
-        <v>1</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3678,11 +3366,6 @@
         </is>
       </c>
       <c r="E109" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3691,41 +3374,40 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="n">
-        <v>0.5</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>**</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="n">
-        <v>1</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3738,11 +3420,6 @@
         </is>
       </c>
       <c r="E111" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3751,11 +3428,13 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="n">
-        <v>1</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3764,28 +3443,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>*</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="n">
-        <v>1</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3798,11 +3474,6 @@
         </is>
       </c>
       <c r="E113" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3811,11 +3482,13 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>1</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3828,11 +3501,6 @@
         </is>
       </c>
       <c r="E114" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3841,11 +3509,13 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>1</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3854,15 +3524,10 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3871,28 +3536,25 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B116" s="1" t="n">
-        <v>1</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3901,11 +3563,13 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>1</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3918,11 +3582,6 @@
         </is>
       </c>
       <c r="E117" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3931,11 +3590,13 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>1</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3944,28 +3605,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>1</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3978,11 +3636,6 @@
         </is>
       </c>
       <c r="E119" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3991,28 +3644,25 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Papaverine_1C02</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>1</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4021,15 +3671,17 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>1</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4038,11 +3690,6 @@
         </is>
       </c>
       <c r="E121" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4051,11 +3698,13 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>1</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4068,11 +3717,6 @@
         </is>
       </c>
       <c r="E122" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4081,11 +3725,13 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>1</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4098,11 +3744,6 @@
         </is>
       </c>
       <c r="E123" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4111,15 +3752,17 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B124" s="1" t="n">
-        <v>1</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4129,23 +3772,20 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>1</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -4158,11 +3798,6 @@
         </is>
       </c>
       <c r="E125" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4171,11 +3806,13 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>1</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -4184,41 +3821,37 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n"/>
-      <c r="B127" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4227,58 +3860,52 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>1</v>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>1</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4287,11 +3914,13 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>1</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4304,11 +3933,6 @@
         </is>
       </c>
       <c r="E130" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4317,11 +3941,13 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>1</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4334,11 +3960,6 @@
         </is>
       </c>
       <c r="E131" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4347,11 +3968,13 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>1</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4364,11 +3987,6 @@
         </is>
       </c>
       <c r="E132" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4377,11 +3995,13 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>1</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4394,11 +4014,6 @@
         </is>
       </c>
       <c r="E133" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4407,11 +4022,13 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>1</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -4420,15 +4037,10 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4437,58 +4049,52 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>1</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>1</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4497,11 +4103,13 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>1</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -4514,11 +4122,6 @@
         </is>
       </c>
       <c r="E137" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4527,11 +4130,13 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>1</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -4544,11 +4149,6 @@
         </is>
       </c>
       <c r="E138" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4557,11 +4157,13 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>1</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -4574,11 +4176,6 @@
         </is>
       </c>
       <c r="E139" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4587,11 +4184,13 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>1</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -4604,11 +4203,6 @@
         </is>
       </c>
       <c r="E140" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4617,11 +4211,13 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>1</v>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -4634,11 +4230,6 @@
         </is>
       </c>
       <c r="E141" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4647,28 +4238,25 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>1</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4677,11 +4265,13 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>1</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4694,11 +4284,6 @@
         </is>
       </c>
       <c r="E143" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4707,11 +4292,13 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>1</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4724,11 +4311,6 @@
         </is>
       </c>
       <c r="E144" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4737,11 +4319,13 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>1</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4754,11 +4338,6 @@
         </is>
       </c>
       <c r="E145" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4767,15 +4346,17 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>1</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4785,23 +4366,20 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>1</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4814,11 +4392,6 @@
         </is>
       </c>
       <c r="E147" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4827,11 +4400,13 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>1</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4844,11 +4419,6 @@
         </is>
       </c>
       <c r="E148" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4857,11 +4427,13 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>1</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4870,15 +4442,10 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4887,11 +4454,13 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>1</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4900,15 +4469,10 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4917,15 +4481,17 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>1</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4938,16 +4504,17 @@
           <t>ns</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n"/>
-      <c r="B152" s="1" t="n">
-        <v>0.5</v>
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4960,11 +4527,6 @@
         </is>
       </c>
       <c r="E152" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4973,15 +4535,17 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>1</v>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4990,11 +4554,6 @@
         </is>
       </c>
       <c r="E153" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5003,11 +4562,13 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>0.5</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -5024,46 +4585,44 @@
           <t>ns</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n"/>
-      <c r="B155" s="1" t="n">
-        <v>1</v>
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
           <t>ns</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>*</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>1</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -5076,11 +4635,6 @@
         </is>
       </c>
       <c r="E156" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5089,11 +4643,13 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>1</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -5106,11 +4662,6 @@
         </is>
       </c>
       <c r="E157" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5119,11 +4670,13 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>1</v>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -5136,11 +4689,6 @@
         </is>
       </c>
       <c r="E158" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5149,11 +4697,13 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>1</v>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -5166,11 +4716,6 @@
         </is>
       </c>
       <c r="E159" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5179,11 +4724,13 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B160" s="1" t="n">
-        <v>1</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -5192,15 +4739,10 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5209,15 +4751,17 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B161" s="1" t="n">
-        <v>1</v>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5226,11 +4770,6 @@
         </is>
       </c>
       <c r="E161" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5239,11 +4778,13 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>1</v>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -5252,15 +4793,10 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -5269,11 +4805,13 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>1</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -5290,293 +4828,8 @@
           <t>ns</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B172" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A154:A155"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/2022-08-08_Behavior_Assay_stars.xlsx
+++ b/Data/2022-08-08_Behavior_Assay_stars.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,22 +455,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Moving [s]|Accomodation</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Velocity [mm/s]|Light</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Velocity [mm/s]|Dark</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Velocity|Ratio Light/Dark</t>
         </is>
@@ -461,10 +482,8 @@
           <t>(+)-Mefloquine_2C11</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -477,6 +496,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -488,10 +512,8 @@
           <t>(-)-Anisomycin_2F06</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -504,6 +526,11 @@
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -515,10 +542,8 @@
           <t>(RS)-PPCC_2E05</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -531,6 +556,11 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -542,22 +572,25 @@
           <t>ABT 239_1F10</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>**</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>**</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -569,10 +602,8 @@
           <t>AZ3451_2E06</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -585,6 +616,11 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -596,10 +632,8 @@
           <t>Abacavir_2H07</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -612,6 +646,11 @@
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -623,10 +662,8 @@
           <t>Abemaciclib_1G11</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -639,6 +676,11 @@
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -650,22 +692,25 @@
           <t>Almitrine_1G04</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>***</t>
         </is>
@@ -677,22 +722,25 @@
           <t>Amiodarone_1F03</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>**</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -704,22 +752,25 @@
           <t>Amodiaquine_1D03</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -731,22 +782,25 @@
           <t>Amuvatinib_1E04</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -758,22 +812,25 @@
           <t>Anagliptin_2E10</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>*</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -785,22 +842,25 @@
           <t>Anidulafungin_2B03</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>**</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -812,22 +872,25 @@
           <t>Apilimod_1B03</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B15" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>*</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>*</t>
         </is>
@@ -839,10 +902,8 @@
           <t>Apixaban_2H09</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -855,6 +916,11 @@
         </is>
       </c>
       <c r="E16" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -866,10 +932,8 @@
           <t>Apremilast_2F05</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -882,6 +946,11 @@
         </is>
       </c>
       <c r="E17" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -893,10 +962,8 @@
           <t>Aprepitant_2F03</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -909,6 +976,11 @@
         </is>
       </c>
       <c r="E18" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -920,37 +992,34 @@
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -959,10 +1028,15 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -971,13 +1045,11 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -990,6 +1062,11 @@
         </is>
       </c>
       <c r="E21" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -998,13 +1075,11 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1018,20 +1093,23 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1046,19 +1124,22 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1071,6 +1152,11 @@
         </is>
       </c>
       <c r="E24" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1079,13 +1165,11 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1098,6 +1182,11 @@
         </is>
       </c>
       <c r="E25" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1106,13 +1195,11 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1125,6 +1212,11 @@
         </is>
       </c>
       <c r="E26" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1133,25 +1225,28 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1160,25 +1255,28 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1187,44 +1285,45 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Camostat_1E10</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Captopril_1F07</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Camostat_1E10</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1235,19 +1334,22 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Captopril_1F07</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1260,6 +1362,11 @@
         </is>
       </c>
       <c r="E31" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1268,13 +1375,11 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1287,6 +1392,11 @@
         </is>
       </c>
       <c r="E32" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1295,13 +1405,11 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1314,6 +1422,11 @@
         </is>
       </c>
       <c r="E33" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1322,13 +1435,11 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1341,6 +1452,11 @@
         </is>
       </c>
       <c r="E34" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1349,13 +1465,11 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1368,6 +1482,11 @@
         </is>
       </c>
       <c r="E35" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1376,13 +1495,11 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1395,6 +1512,11 @@
         </is>
       </c>
       <c r="E36" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1403,40 +1525,41 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Clomipramine_1E08</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Clomipramine_1E08</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1445,25 +1568,28 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1476,6 +1602,11 @@
         </is>
       </c>
       <c r="E39" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1484,13 +1615,11 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1503,6 +1632,11 @@
         </is>
       </c>
       <c r="E40" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1511,13 +1645,11 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Cyclosporine_1F04</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1530,6 +1662,11 @@
         </is>
       </c>
       <c r="E41" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1538,13 +1675,11 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Cyclosporine_1F04</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1557,6 +1692,11 @@
         </is>
       </c>
       <c r="E42" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1565,13 +1705,11 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Daclatasvir_1C04</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1584,6 +1722,11 @@
         </is>
       </c>
       <c r="E43" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1592,13 +1735,11 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Daclatasvir_1C04</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1611,6 +1752,11 @@
         </is>
       </c>
       <c r="E44" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1619,13 +1765,11 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1638,6 +1782,11 @@
         </is>
       </c>
       <c r="E45" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1646,17 +1795,15 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1665,6 +1812,11 @@
         </is>
       </c>
       <c r="E46" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1673,13 +1825,11 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1692,6 +1842,11 @@
         </is>
       </c>
       <c r="E47" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1700,13 +1855,11 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1715,10 +1868,15 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1727,17 +1885,15 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1746,6 +1902,11 @@
         </is>
       </c>
       <c r="E49" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1754,13 +1915,11 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1773,6 +1932,11 @@
         </is>
       </c>
       <c r="E50" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1781,25 +1945,28 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1808,25 +1975,28 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Digoxin_1D02</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1835,13 +2005,11 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Digoxin_1D02</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1854,6 +2022,11 @@
         </is>
       </c>
       <c r="E53" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1862,13 +2035,11 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1881,6 +2052,11 @@
         </is>
       </c>
       <c r="E54" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1889,13 +2065,11 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Doxycycline_1E05</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1908,6 +2082,11 @@
         </is>
       </c>
       <c r="E55" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1916,13 +2095,11 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Doxycycline_1E05</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1935,6 +2112,11 @@
         </is>
       </c>
       <c r="E56" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1943,13 +2125,11 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1962,6 +2142,11 @@
         </is>
       </c>
       <c r="E57" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1970,13 +2155,11 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1989,6 +2172,11 @@
         </is>
       </c>
       <c r="E58" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -1997,13 +2185,11 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Emetine_1E06</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2016,6 +2202,11 @@
         </is>
       </c>
       <c r="E59" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2024,17 +2215,15 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Emetine_1E06</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2043,6 +2232,11 @@
         </is>
       </c>
       <c r="E60" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2051,13 +2245,11 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2070,6 +2262,11 @@
         </is>
       </c>
       <c r="E61" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2078,13 +2275,11 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2093,10 +2288,15 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2105,13 +2305,11 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Favipiravir_1D10</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2124,6 +2322,11 @@
         </is>
       </c>
       <c r="E63" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2132,13 +2335,11 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Favipiravir_1D10</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2151,6 +2352,11 @@
         </is>
       </c>
       <c r="E64" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2159,13 +2365,11 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2174,10 +2378,15 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2186,13 +2395,11 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2205,6 +2412,11 @@
         </is>
       </c>
       <c r="E66" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2213,13 +2425,11 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2232,6 +2442,11 @@
         </is>
       </c>
       <c r="E67" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2240,17 +2455,15 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>GSK 983_1C07</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2260,20 +2473,23 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>GSK-369796_1C03</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>GSK 983_1C07</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2282,37 +2498,45 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Halofantrine_1D05</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>GSK-369796_1C03</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2321,25 +2545,28 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Halofantrine_1D05</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2348,13 +2575,11 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2368,20 +2593,23 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2396,19 +2624,22 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Hydroxyprogesterone_1E02</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2421,6 +2652,11 @@
         </is>
       </c>
       <c r="E74" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2429,13 +2665,11 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Hydroxyprogesterone_1E02</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2448,6 +2682,11 @@
         </is>
       </c>
       <c r="E75" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2456,13 +2695,11 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2475,6 +2712,11 @@
         </is>
       </c>
       <c r="E76" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2483,13 +2725,11 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2502,6 +2742,11 @@
         </is>
       </c>
       <c r="E77" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2510,13 +2755,11 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Indomethacin_1F06</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2529,6 +2772,11 @@
         </is>
       </c>
       <c r="E78" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2537,17 +2785,15 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Itraconazole_1C06</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Indomethacin_1F06</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2556,6 +2802,11 @@
         </is>
       </c>
       <c r="E79" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2564,67 +2815,67 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Ivermectin_1F05</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
+          <t>Itraconazole_1C06</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>*</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ivermectin_1F05</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2638,24 +2889,27 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2664,6 +2918,11 @@
         </is>
       </c>
       <c r="E83" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2672,13 +2931,11 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2691,6 +2948,11 @@
         </is>
       </c>
       <c r="E84" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2699,13 +2961,11 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2714,10 +2974,15 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2726,13 +2991,11 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2745,6 +3008,11 @@
         </is>
       </c>
       <c r="E86" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2753,13 +3021,11 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2772,6 +3038,11 @@
         </is>
       </c>
       <c r="E87" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2780,13 +3051,11 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2799,6 +3068,11 @@
         </is>
       </c>
       <c r="E88" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2807,13 +3081,11 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2826,6 +3098,11 @@
         </is>
       </c>
       <c r="E89" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2834,13 +3111,11 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2849,10 +3124,15 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2861,13 +3141,11 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2880,6 +3158,11 @@
         </is>
       </c>
       <c r="E91" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2888,13 +3171,11 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2903,10 +3184,15 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2915,13 +3201,11 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2934,6 +3218,11 @@
         </is>
       </c>
       <c r="E93" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2942,17 +3231,15 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2962,20 +3249,19 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2988,6 +3274,11 @@
         </is>
       </c>
       <c r="E95" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -2996,13 +3287,11 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3011,10 +3300,15 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3023,13 +3317,11 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3044,19 +3336,22 @@
       <c r="E97" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3073,29 +3368,33 @@
           <t>ns</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3104,17 +3403,15 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3123,6 +3420,11 @@
         </is>
       </c>
       <c r="E100" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3131,13 +3433,11 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3154,17 +3454,16 @@
           <t>ns</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3181,17 +3480,16 @@
           <t>ns</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3208,21 +3506,20 @@
           <t>ns</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3232,24 +3529,27 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3258,6 +3558,11 @@
         </is>
       </c>
       <c r="E105" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3266,17 +3571,15 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3286,20 +3589,23 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3312,6 +3618,11 @@
         </is>
       </c>
       <c r="E107" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3320,13 +3631,11 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3339,6 +3648,11 @@
         </is>
       </c>
       <c r="E108" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3347,13 +3661,11 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3366,6 +3678,11 @@
         </is>
       </c>
       <c r="E109" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3374,17 +3691,15 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3393,6 +3708,11 @@
         </is>
       </c>
       <c r="E110" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3401,13 +3721,11 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3416,25 +3734,28 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3447,6 +3768,11 @@
         </is>
       </c>
       <c r="E112" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3455,13 +3781,11 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3470,25 +3794,28 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Papaverine_1C02</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3501,6 +3828,11 @@
         </is>
       </c>
       <c r="E114" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3509,13 +3841,11 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3524,10 +3854,15 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3536,13 +3871,11 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3555,6 +3888,11 @@
         </is>
       </c>
       <c r="E116" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3563,25 +3901,28 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3590,13 +3931,11 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3605,25 +3944,28 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3636,6 +3978,11 @@
         </is>
       </c>
       <c r="E119" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3644,25 +3991,28 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3671,13 +4021,11 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3690,6 +4038,11 @@
         </is>
       </c>
       <c r="E121" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3698,17 +4051,15 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3717,6 +4068,11 @@
         </is>
       </c>
       <c r="E122" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3725,13 +4081,11 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3744,6 +4098,11 @@
         </is>
       </c>
       <c r="E123" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3752,13 +4111,11 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3771,6 +4128,11 @@
         </is>
       </c>
       <c r="E124" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3779,17 +4141,15 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3799,20 +4159,23 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3825,6 +4188,11 @@
         </is>
       </c>
       <c r="E126" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3833,79 +4201,84 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>ns</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>**</t>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3914,13 +4287,11 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3933,6 +4304,11 @@
         </is>
       </c>
       <c r="E130" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3941,13 +4317,11 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3960,6 +4334,11 @@
         </is>
       </c>
       <c r="E131" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3968,13 +4347,11 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3987,6 +4364,11 @@
         </is>
       </c>
       <c r="E132" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -3995,13 +4377,11 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4014,6 +4394,11 @@
         </is>
       </c>
       <c r="E133" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4022,13 +4407,11 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -4041,6 +4424,11 @@
         </is>
       </c>
       <c r="E134" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4049,13 +4437,11 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4064,10 +4450,15 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4076,52 +4467,58 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4130,13 +4527,11 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -4149,6 +4544,11 @@
         </is>
       </c>
       <c r="E138" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4157,13 +4557,11 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -4176,6 +4574,11 @@
         </is>
       </c>
       <c r="E139" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4184,13 +4587,11 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -4203,6 +4604,11 @@
         </is>
       </c>
       <c r="E140" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4211,13 +4617,11 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -4230,6 +4634,11 @@
         </is>
       </c>
       <c r="E141" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4238,25 +4647,28 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4265,13 +4677,11 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4284,6 +4694,11 @@
         </is>
       </c>
       <c r="E143" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4292,13 +4707,11 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4311,6 +4724,11 @@
         </is>
       </c>
       <c r="E144" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4319,13 +4737,11 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4338,6 +4754,11 @@
         </is>
       </c>
       <c r="E145" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4346,17 +4767,15 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4366,20 +4785,23 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4392,6 +4814,11 @@
         </is>
       </c>
       <c r="E147" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4400,13 +4827,11 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4419,6 +4844,11 @@
         </is>
       </c>
       <c r="E148" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4427,13 +4857,11 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4446,6 +4874,11 @@
         </is>
       </c>
       <c r="E149" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4454,13 +4887,11 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4469,10 +4900,15 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4481,17 +4917,15 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4500,6 +4934,11 @@
         </is>
       </c>
       <c r="E151" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4508,13 +4947,11 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4531,21 +4968,20 @@
           <t>ns</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4554,6 +4990,11 @@
         </is>
       </c>
       <c r="E153" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4562,13 +5003,11 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -4581,6 +5020,11 @@
         </is>
       </c>
       <c r="E154" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4589,13 +5033,11 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4612,44 +5054,46 @@
           <t>ns</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>ns</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -4662,6 +5106,11 @@
         </is>
       </c>
       <c r="E157" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4670,13 +5119,11 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4689,6 +5136,11 @@
         </is>
       </c>
       <c r="E158" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4697,13 +5149,11 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4716,6 +5166,11 @@
         </is>
       </c>
       <c r="E159" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4724,13 +5179,11 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4743,6 +5196,11 @@
         </is>
       </c>
       <c r="E160" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4751,13 +5209,11 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4766,10 +5222,15 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4778,17 +5239,15 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4797,6 +5256,11 @@
         </is>
       </c>
       <c r="E162" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -4805,31 +5269,344 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
           <t>ZINC4326719_2E07</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
+      <c r="B173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A155:A156"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>